--- a/ResultadoEleicoesDistritos/SANTARÉM_FERREIRA DO ZÊZERE.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_FERREIRA DO ZÊZERE.xlsx
@@ -597,64 +597,64 @@
         <v>2053</v>
       </c>
       <c r="H2" t="n">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="I2" t="n">
-        <v>184</v>
+        <v>229</v>
       </c>
       <c r="J2" t="n">
-        <v>878</v>
+        <v>851</v>
       </c>
       <c r="K2" t="n">
+        <v>2</v>
+      </c>
+      <c r="L2" t="n">
+        <v>214</v>
+      </c>
+      <c r="M2" t="n">
         <v>7</v>
       </c>
-      <c r="L2" t="n">
-        <v>219</v>
-      </c>
-      <c r="M2" t="n">
-        <v>11</v>
-      </c>
       <c r="N2" t="n">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="O2" t="n">
+        <v>0</v>
+      </c>
+      <c r="P2" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>3</v>
+      </c>
+      <c r="R2" t="n">
+        <v>3</v>
+      </c>
+      <c r="S2" t="n">
+        <v>85</v>
+      </c>
+      <c r="T2" t="n">
+        <v>167</v>
+      </c>
+      <c r="U2" t="n">
+        <v>10</v>
+      </c>
+      <c r="V2" t="n">
+        <v>1286</v>
+      </c>
+      <c r="W2" t="n">
+        <v>1</v>
+      </c>
+      <c r="X2" t="n">
+        <v>1330</v>
+      </c>
+      <c r="Y2" t="n">
         <v>2</v>
       </c>
-      <c r="P2" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>1</v>
-      </c>
-      <c r="R2" t="n">
-        <v>8</v>
-      </c>
-      <c r="S2" t="n">
-        <v>103</v>
-      </c>
-      <c r="T2" t="n">
-        <v>135</v>
-      </c>
-      <c r="U2" t="n">
-        <v>13</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1320</v>
-      </c>
-      <c r="W2" t="n">
-        <v>0</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1318</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>1</v>
-      </c>
       <c r="Z2" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AA2" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
